--- a/biology/Histoire de la zoologie et de la botanique/Caspar_Erasmus_Duftschmid/Caspar_Erasmus_Duftschmid.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Caspar_Erasmus_Duftschmid/Caspar_Erasmus_Duftschmid.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Caspar (ou Kaspar) Erasmus Duftschmid est un médecin et un naturaliste autrichien, né le 19 novembre 1767 à Gmunden et mort le 17 décembre 1821 à Linz.
 Il est le fils d’Anton Duftschmid. Il obtient son titre de docteur en médecine à l’université de Vienne en 1790. Il se marie avec Theresia Elsasser von Grünwald en 1792, union dont naîtra Johann Baptiste Duftschmid (1804-1866), qui se fera un nom en botanique.
@@ -513,7 +525,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Allen G. Debus (dir.) (1968). World Who’s Who in Science. A Biographical Dictionary of Notable Scientists from Antiquity to the Present. Marquis-Who’s Who (Chicago) : xvi + 1855 p.
 Ce texte utilise des extraits de l'article de langue anglaise de Wikipédia (version du 5 janvier 2006).
